--- a/backend/data/newMBTI延伸人.xlsx
+++ b/backend/data/newMBTI延伸人.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Username\Desktop\Course-recommendation-system-main\backend\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="52">
   <si>
     <t>課程名稱</t>
   </si>
@@ -152,17 +157,111 @@
   </si>
   <si>
     <t>ESTP</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ink</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ategory</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eople</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eople</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>BTI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_type</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -170,7 +269,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -210,22 +338,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -267,7 +407,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +439,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -333,6 +474,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,14 +650,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N47" sqref="N47"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="7" width="9" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,8 +672,20 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -534,10 +693,22 @@
         <v>33</v>
       </c>
       <c r="C2">
-        <v>0.302338986921221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0.30233898692122102</v>
+      </c>
+      <c r="D2" s="5">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="5">
+        <v>135</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -545,10 +716,22 @@
         <v>34</v>
       </c>
       <c r="C3">
-        <v>0.337356753240973</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>0.33735675324097297</v>
+      </c>
+      <c r="D3" s="5">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="5">
+        <v>136</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -556,10 +739,22 @@
         <v>35</v>
       </c>
       <c r="C4">
-        <v>0.260994095286728</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>0.26099409528672801</v>
+      </c>
+      <c r="D4" s="5">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="5">
+        <v>137</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -567,10 +762,22 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>0.267802497918151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.26780249791815097</v>
+      </c>
+      <c r="D5" s="5">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="5">
+        <v>138</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -580,8 +787,20 @@
       <c r="C6">
         <v>0.359106798215651</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5">
+        <v>139</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="5">
+        <v>139</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -589,10 +808,22 @@
         <v>36</v>
       </c>
       <c r="C7">
-        <v>0.378062626598658</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>0.37806262659865802</v>
+      </c>
+      <c r="D7" s="5">
+        <v>140</v>
+      </c>
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5">
+        <v>140</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -602,8 +833,20 @@
       <c r="C8">
         <v>0.137431768433629</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5">
+        <v>141</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5">
+        <v>141</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -613,8 +856,20 @@
       <c r="C9">
         <v>0.287150595326154</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5">
+        <v>142</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="5">
+        <v>142</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -622,10 +877,22 @@
         <v>38</v>
       </c>
       <c r="C10">
-        <v>0.385843132737216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.38584313273721599</v>
+      </c>
+      <c r="D10" s="5">
+        <v>143</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="5">
+        <v>143</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -635,8 +902,20 @@
       <c r="C11">
         <v>0.3516468456979</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5">
+        <v>144</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="5">
+        <v>144</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -644,10 +923,22 @@
         <v>38</v>
       </c>
       <c r="C12">
-        <v>0.319812074287291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>0.31981207428729103</v>
+      </c>
+      <c r="D12" s="5">
+        <v>145</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="5">
+        <v>145</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -657,8 +948,20 @@
       <c r="C13">
         <v>0.411392740632672</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="5">
+        <v>146</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -668,8 +971,20 @@
       <c r="C14">
         <v>0.411392740632672</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5">
+        <v>147</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="5">
+        <v>147</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -677,10 +992,22 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.39905422760367</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>0.39905422760366999</v>
+      </c>
+      <c r="D15" s="5">
+        <v>148</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5">
+        <v>148</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -690,8 +1017,20 @@
       <c r="C16">
         <v>0.372445384270913</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" s="5">
+        <v>149</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="5">
+        <v>149</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -701,8 +1040,20 @@
       <c r="C17">
         <v>0.372445384270913</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" s="5">
+        <v>150</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="5">
+        <v>150</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -710,10 +1061,22 @@
         <v>40</v>
       </c>
       <c r="C18">
-        <v>0.407207185652146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>0.40720718565214598</v>
+      </c>
+      <c r="D18" s="5">
+        <v>151</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="5">
+        <v>151</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -721,10 +1084,22 @@
         <v>34</v>
       </c>
       <c r="C19">
-        <v>0.385017529896218</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+        <v>0.38501752989621801</v>
+      </c>
+      <c r="D19" s="5">
+        <v>152</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="5">
+        <v>152</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -732,10 +1107,22 @@
         <v>36</v>
       </c>
       <c r="C20">
-        <v>0.349350741842619</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>0.34935074184261899</v>
+      </c>
+      <c r="D20" s="5">
+        <v>153</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="5">
+        <v>153</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -743,10 +1130,22 @@
         <v>36</v>
       </c>
       <c r="C21">
-        <v>0.349350741842619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.34935074184261899</v>
+      </c>
+      <c r="D21" s="5">
+        <v>154</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21" s="5">
+        <v>154</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -754,10 +1153,22 @@
         <v>38</v>
       </c>
       <c r="C22">
-        <v>0.186760279294496</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>0.18676027929449601</v>
+      </c>
+      <c r="D22" s="5">
+        <v>155</v>
+      </c>
+      <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="5">
+        <v>155</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -765,10 +1176,22 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.310857369797132</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>0.31085736979713202</v>
+      </c>
+      <c r="D23" s="5">
+        <v>156</v>
+      </c>
+      <c r="E23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="5">
+        <v>156</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -776,10 +1199,22 @@
         <v>34</v>
       </c>
       <c r="C24">
-        <v>0.401032233838901</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>0.40103223383890102</v>
+      </c>
+      <c r="D24" s="5">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="5">
+        <v>157</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -789,8 +1224,20 @@
       <c r="C25">
         <v>0.345873054367278</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" s="5">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="5">
+        <v>158</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>22</v>
       </c>
@@ -798,10 +1245,22 @@
         <v>42</v>
       </c>
       <c r="C26">
-        <v>0.283329523414788</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>0.28332952341478801</v>
+      </c>
+      <c r="D26" s="5">
+        <v>159</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="5">
+        <v>159</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -809,10 +1268,22 @@
         <v>40</v>
       </c>
       <c r="C27">
-        <v>0.360535372326535</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>0.36053537232653499</v>
+      </c>
+      <c r="D27" s="5">
+        <v>160</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27" s="5">
+        <v>160</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -820,10 +1291,22 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>0.357870890920554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.35787089092055402</v>
+      </c>
+      <c r="D28" s="5">
+        <v>161</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="5">
+        <v>161</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -831,10 +1314,22 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>0.333185367026651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>0.33318536702665102</v>
+      </c>
+      <c r="D29" s="5">
+        <v>162</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="5">
+        <v>162</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -842,10 +1337,22 @@
         <v>34</v>
       </c>
       <c r="C30">
-        <v>0.231870238408578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>0.23187023840857801</v>
+      </c>
+      <c r="D30" s="5">
+        <v>163</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="5">
+        <v>163</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -853,10 +1360,22 @@
         <v>39</v>
       </c>
       <c r="C31">
-        <v>0.36932663099283</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>0.36932663099282997</v>
+      </c>
+      <c r="D31" s="5">
+        <v>164</v>
+      </c>
+      <c r="E31" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="5">
+        <v>164</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -864,10 +1383,22 @@
         <v>34</v>
       </c>
       <c r="C32">
-        <v>0.369508642130445</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>0.36950864213044499</v>
+      </c>
+      <c r="D32" s="5">
+        <v>165</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="5">
+        <v>165</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -875,10 +1406,22 @@
         <v>35</v>
       </c>
       <c r="C33">
-        <v>0.354822816246424</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>0.35482281624642398</v>
+      </c>
+      <c r="D33" s="5">
+        <v>166</v>
+      </c>
+      <c r="E33" t="s">
+        <v>35</v>
+      </c>
+      <c r="F33" s="5">
+        <v>166</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>28</v>
       </c>
@@ -886,10 +1429,22 @@
         <v>43</v>
       </c>
       <c r="C34">
-        <v>0.41466182249252</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>0.41466182249251998</v>
+      </c>
+      <c r="D34" s="5">
+        <v>167</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" s="5">
+        <v>167</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>29</v>
       </c>
@@ -897,10 +1452,22 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>0.275624416586783</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>0.27562441658678299</v>
+      </c>
+      <c r="D35" s="5">
+        <v>168</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" s="5">
+        <v>168</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -908,10 +1475,22 @@
         <v>44</v>
       </c>
       <c r="C36">
-        <v>0.458320663765687</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>0.45832066376568698</v>
+      </c>
+      <c r="D36" s="5">
+        <v>169</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="5">
+        <v>169</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>30</v>
       </c>
@@ -919,10 +1498,22 @@
         <v>44</v>
       </c>
       <c r="C37">
-        <v>0.291363698952563</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>0.29136369895256298</v>
+      </c>
+      <c r="D37" s="5">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="5">
+        <v>170</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>30</v>
       </c>
@@ -930,10 +1521,22 @@
         <v>33</v>
       </c>
       <c r="C38">
-        <v>0.463382556983583</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>0.46338255698358299</v>
+      </c>
+      <c r="D38" s="5">
+        <v>171</v>
+      </c>
+      <c r="E38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="5">
+        <v>171</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>30</v>
       </c>
@@ -941,10 +1544,22 @@
         <v>34</v>
       </c>
       <c r="C39">
-        <v>0.334744115519869</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>0.33474411551986899</v>
+      </c>
+      <c r="D39" s="5">
+        <v>172</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="5">
+        <v>172</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -952,10 +1567,22 @@
         <v>35</v>
       </c>
       <c r="C40">
-        <v>0.443050378254958</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>0.44305037825495802</v>
+      </c>
+      <c r="D40" s="5">
+        <v>173</v>
+      </c>
+      <c r="E40" t="s">
+        <v>35</v>
+      </c>
+      <c r="F40" s="5">
+        <v>173</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -963,10 +1590,22 @@
         <v>35</v>
       </c>
       <c r="C41">
-        <v>0.443050378254958</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>0.44305037825495802</v>
+      </c>
+      <c r="D41" s="5">
+        <v>174</v>
+      </c>
+      <c r="E41" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="5">
+        <v>174</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -974,10 +1613,22 @@
         <v>35</v>
       </c>
       <c r="C42">
-        <v>0.425277354627053</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>0.42527735462705302</v>
+      </c>
+      <c r="D42" s="5">
+        <v>175</v>
+      </c>
+      <c r="E42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="5">
+        <v>175</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
       </c>
@@ -985,10 +1636,22 @@
         <v>34</v>
       </c>
       <c r="C43">
-        <v>0.34402478991609</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>0.34402478991608998</v>
+      </c>
+      <c r="D43" s="5">
+        <v>176</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="5">
+        <v>176</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>32</v>
       </c>
@@ -996,10 +1659,22 @@
         <v>45</v>
       </c>
       <c r="C44">
-        <v>0.333832746061539</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>0.33383274606153901</v>
+      </c>
+      <c r="D44" s="5">
+        <v>177</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="5">
+        <v>177</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -1007,10 +1682,22 @@
         <v>41</v>
       </c>
       <c r="C45">
-        <v>0.316179906311264</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>0.31617990631126403</v>
+      </c>
+      <c r="D45" s="5">
+        <v>178</v>
+      </c>
+      <c r="E45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F45" s="5">
+        <v>178</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>32</v>
       </c>
@@ -1018,10 +1705,22 @@
         <v>39</v>
       </c>
       <c r="C46">
-        <v>0.474774067409546</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>0.47477406740954597</v>
+      </c>
+      <c r="D46" s="5">
+        <v>179</v>
+      </c>
+      <c r="E46" t="s">
+        <v>39</v>
+      </c>
+      <c r="F46" s="5">
+        <v>179</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>32</v>
       </c>
@@ -1029,10 +1728,23 @@
         <v>38</v>
       </c>
       <c r="C47">
-        <v>0.353747810099694</v>
+        <v>0.35374781009969403</v>
+      </c>
+      <c r="D47" s="5">
+        <v>180</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" s="5">
+        <v>180</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>